--- a/BalanceSheet/SPGI_bal.xlsx
+++ b/BalanceSheet/SPGI_bal.xlsx
@@ -1850,16 +1850,16 @@
         <v>241000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>229000000.0</v>
+        <v>233000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>95000000.0</v>
+        <v>186000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>59000000.0</v>
+        <v>186000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-251000000.0</v>
+        <v>203000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>190000000.0</v>
@@ -4907,7 +4907,7 @@
         <v>2704000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>1766000000.0</v>
+        <v>1146000000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>1646000000.0</v>
@@ -5034,7 +5034,7 @@
         <v>4656000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>4680000000.0</v>
+        <v>4060000000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>3665000000.0</v>
